--- a/가격문서.xlsx
+++ b/가격문서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>비용내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   <si>
     <t>두번째 거래
 168560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베이파이보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마더보드가 사물인터넷 키트에 없었어요 bb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,10 +173,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,7 +489,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,29 +497,29 @@
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -602,8 +610,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>43700</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -775,7 +789,7 @@
       </c>
       <c r="C31" s="2">
         <f>C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23+C24+C25+C26+C27+C28+C29+C30</f>
-        <v>511460</v>
+        <v>555160</v>
       </c>
     </row>
   </sheetData>
